--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
-    <t>机构车险续保跟踪日报 (07月11日)</t>
+    <t>机构车险续保跟踪日报 (07月12日)</t>
   </si>
   <si>
     <t>机构</t>
@@ -74,7 +74,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="?,??0;[红色]-?,??0;&quot;-&quot;;"/>
+    <numFmt numFmtId="165" formatCode="0.00%;[红色]-0.00%;&quot;-&quot;;"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +95,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -132,13 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,48 +518,216 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>2753</v>
+      </c>
+      <c r="D4" s="3">
+        <v>528</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2963</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.1917907737014166</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>1624</v>
+      </c>
+      <c r="D5" s="3">
+        <v>382</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1952</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.2352216748768473</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>1137</v>
+      </c>
+      <c r="D6" s="3">
+        <v>334</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1348</v>
+      </c>
+      <c r="F6" s="3">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.2937554969217238</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>841</v>
+      </c>
+      <c r="D7" s="3">
+        <v>196</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1278</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.2330558858501784</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>493</v>
+      </c>
+      <c r="D8" s="3">
+        <v>139</v>
+      </c>
+      <c r="E8" s="3">
+        <v>501</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.281947261663286</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>251</v>
+      </c>
+      <c r="D9" s="3">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3">
+        <v>261</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.3266932270916335</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>208</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.1388888888888889</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>2758</v>
+      </c>
+      <c r="D11" s="3">
+        <v>794</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2966</v>
+      </c>
+      <c r="F11" s="3">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.2878897751994199</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
